--- a/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +162,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -207,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -233,12 +228,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -681,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -695,7 +684,7 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -715,7 +704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -733,7 +722,7 @@
         <v>1576.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>687.81</v>
       </c>
@@ -753,7 +742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -773,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -792,37 +781,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -959,9 +959,6 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
         <v>888.49</v>
       </c>
@@ -1005,9 +1002,6 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
         <v>888.49</v>
       </c>
@@ -1051,9 +1045,6 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
         <v>888.49</v>
       </c>
@@ -1071,13 +1062,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>788.49</v>
+        <v>812.14</v>
       </c>
       <c r="G6" s="10">
-        <v>6846.04</v>
+        <v>6822.39</v>
       </c>
       <c r="H6" s="6">
-        <v>100</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1095,9 +1086,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
@@ -1117,13 +1105,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>820.03</v>
+        <v>820.27</v>
       </c>
       <c r="G7" s="10">
-        <v>6026.01</v>
+        <v>6002.12</v>
       </c>
       <c r="H7" s="6">
-        <v>68.459999999999994</v>
+        <v>68.22</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1141,9 +1129,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
@@ -1163,13 +1148,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>828.23</v>
+        <v>828.47</v>
       </c>
       <c r="G8" s="10">
-        <v>5197.78</v>
+        <v>5173.6499999999996</v>
       </c>
       <c r="H8" s="6">
-        <v>60.26</v>
+        <v>60.02</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1187,9 +1172,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1209,13 +1191,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>836.51</v>
+        <v>836.75</v>
       </c>
       <c r="G9" s="10">
-        <v>4361.2700000000004</v>
+        <v>4336.8999999999996</v>
       </c>
       <c r="H9" s="6">
-        <v>51.98</v>
+        <v>51.74</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1233,9 +1215,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
@@ -1255,13 +1234,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>844.88</v>
+        <v>845.12</v>
       </c>
       <c r="G10" s="10">
-        <v>3516.39</v>
+        <v>3491.78</v>
       </c>
       <c r="H10" s="6">
-        <v>43.61</v>
+        <v>43.37</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1279,9 +1258,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
@@ -1301,13 +1277,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>853.33</v>
+        <v>853.57</v>
       </c>
       <c r="G11" s="10">
-        <v>2663.06</v>
+        <v>2638.21</v>
       </c>
       <c r="H11" s="6">
-        <v>35.159999999999997</v>
+        <v>34.92</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1325,9 +1301,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
@@ -1347,13 +1320,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>861.86</v>
+        <v>862.11</v>
       </c>
       <c r="G12" s="10">
-        <v>1801.2</v>
+        <v>1776.1</v>
       </c>
       <c r="H12" s="6">
-        <v>26.63</v>
+        <v>26.38</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1371,9 +1344,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
@@ -1393,13 +1363,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>870.48</v>
+        <v>870.73</v>
       </c>
       <c r="G13" s="6">
-        <v>930.72</v>
+        <v>905.37</v>
       </c>
       <c r="H13" s="6">
-        <v>18.010000000000002</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1417,9 +1387,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -1439,13 +1406,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>930.72</v>
+        <v>905.37</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>9.31</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1454,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>940.03</v>
+        <v>914.42</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1465,11 +1432,8 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
       <c r="P14" s="6">
-        <v>940.03</v>
+        <v>914.42</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -239,6 +244,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -286,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,9 +327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,10 +832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,7 +843,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -841,17 +883,18 @@
       <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -877,8 +920,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -914,14 +958,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -957,14 +1002,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1000,14 +1046,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1043,14 +1090,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1086,14 +1134,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1129,14 +1178,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1172,14 +1222,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1215,14 +1266,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1258,14 +1310,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1301,14 +1354,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1344,14 +1398,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1387,10 +1442,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>914.42</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/55-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -152,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -294,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,26 +322,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,23 +357,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -834,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
